--- a/student list sample.xlsx
+++ b/student list sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">RollNo</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Vikram Singh</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajay Singh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pooja Verma</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sanya Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amit Gupta</t>
   </si>
 </sst>
 </file>
@@ -347,17 +341,17 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,9 +389,7 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
@@ -407,10 +399,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
@@ -421,10 +413,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
@@ -435,11 +427,9 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
@@ -457,246 +447,6 @@
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
